--- a/DOC/journaux.xlsx
+++ b/DOC/journaux.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\année 2017-2018\Modules I-CT\431\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Almir.RAZIC\Documents\GitHub\Bataille-navale\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
   <si>
     <t>Journal de bord</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>aide aux autres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 min </t>
+  </si>
+  <si>
+    <t>création d'un repository,instalation de gihubdesktop et prise en main</t>
   </si>
 </sst>
 </file>
@@ -565,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -635,6 +641,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,7 +928,7 @@
   <dimension ref="B1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,11 +1283,21 @@
       <c r="F13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="3"/>
+      <c r="H13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="15">
+        <v>43558</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">

--- a/DOC/journaux.xlsx
+++ b/DOC/journaux.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
   <si>
     <t>Journal de bord</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>création d'un repository,instalation de gihubdesktop et prise en main</t>
+  </si>
+  <si>
+    <t>90 min</t>
+  </si>
+  <si>
+    <t>finition des menus et amélioration des géstions de scores</t>
   </si>
 </sst>
 </file>
@@ -588,62 +594,62 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -927,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,44 +946,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="H1" s="25" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
+      <c r="H1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="2:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
@@ -1295,7 +1301,7 @@
       <c r="K13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="34" t="s">
+      <c r="L13" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1322,11 +1328,21 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="15">
+        <v>43559</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1334,11 +1350,21 @@
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="15">
+        <v>43560</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>

--- a/DOC/journaux.xlsx
+++ b/DOC/journaux.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
   <si>
     <t>Journal de bord</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>finition des menus et amélioration des géstions de scores</t>
+  </si>
+  <si>
+    <t>choix des cartes aléatoire + ajout des comentaires sur le code +  du cartouche</t>
   </si>
 </sst>
 </file>
@@ -933,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,11 +1375,21 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="15">
+        <v>43560</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
